--- a/data_year/zb/建筑业/建设工程监理营业收入/工程造价咨询收入.xlsx
+++ b/data_year/zb/建筑业/建设工程监理营业收入/工程造价咨询收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,344 +523,102 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2069</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>1253.93</v>
+        <v>1437</v>
       </c>
       <c r="F2" t="n">
-        <v>1263.42</v>
+        <v>9153</v>
       </c>
       <c r="G2" t="n">
-        <v>58781.22</v>
+        <v>241164</v>
       </c>
       <c r="H2" t="n">
-        <v>2806.76</v>
+        <v>8564</v>
       </c>
       <c r="I2" t="n">
-        <v>50448.82</v>
+        <v>204668</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1142.06</v>
+        <v>1043</v>
       </c>
       <c r="L2" t="n">
-        <v>151.3</v>
+        <v>265</v>
       </c>
       <c r="M2" t="n">
-        <v>1467.54</v>
+        <v>5090</v>
       </c>
       <c r="N2" t="n">
-        <v>69.17</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8344</v>
+      </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
       <c r="R2" t="n">
-        <v>170.22</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>56.86</v>
-      </c>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3995.56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1052.47</v>
+        <v>2283.42</v>
       </c>
       <c r="F3" t="n">
-        <v>6228.89</v>
+        <v>29197.62</v>
       </c>
       <c r="G3" t="n">
-        <v>77973.03</v>
+        <v>349355.84</v>
       </c>
       <c r="H3" t="n">
-        <v>3365.59</v>
+        <v>11113.09</v>
       </c>
       <c r="I3" t="n">
-        <v>63944.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>80.5</v>
-      </c>
+        <v>272586.07</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>1828.24</v>
+        <v>2475.66</v>
       </c>
       <c r="L3" t="n">
-        <v>133.3</v>
+        <v>70.22</v>
       </c>
       <c r="M3" t="n">
-        <v>793.76</v>
+        <v>11404.35</v>
       </c>
       <c r="N3" t="n">
-        <v>69.17</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>133.72</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14965.63</v>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>419.65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>1584.85</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2141.81</v>
-      </c>
-      <c r="G4" t="n">
-        <v>91376.02</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4302.43</v>
-      </c>
-      <c r="I4" t="n">
-        <v>79316.91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>73.78</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1934.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>137.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1482.34</v>
-      </c>
-      <c r="N4" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>335.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>863</v>
-      </c>
-      <c r="F5" t="n">
-        <v>363704</v>
-      </c>
-      <c r="G5" t="n">
-        <v>484890</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4287</v>
-      </c>
-      <c r="I5" t="n">
-        <v>105760</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1714</v>
-      </c>
-      <c r="L5" t="n">
-        <v>206</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6406</v>
-      </c>
-      <c r="N5" t="n">
-        <v>133</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1354</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2141.25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>677.34</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2226.33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>167523.33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3654.99</v>
-      </c>
-      <c r="I6" t="n">
-        <v>147434.9</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>2204.03</v>
-      </c>
-      <c r="L6" t="n">
-        <v>213.37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2887.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>51.11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5435.24</v>
-      </c>
-      <c r="P6" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>281.65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2069</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1437</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9153</v>
-      </c>
-      <c r="G7" t="n">
-        <v>241164</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8564</v>
-      </c>
-      <c r="I7" t="n">
-        <v>204668</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>1043</v>
-      </c>
-      <c r="L7" t="n">
-        <v>265</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5090</v>
-      </c>
-      <c r="N7" t="n">
-        <v>51</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8344</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>23</v>
-      </c>
-      <c r="R7" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3995.56</v>
-      </c>
-      <c r="C8" t="n">
-        <v>90</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>2283.42</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29197.62</v>
-      </c>
-      <c r="G8" t="n">
-        <v>349355.84</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11113.09</v>
-      </c>
-      <c r="I8" t="n">
-        <v>272586.07</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>2475.66</v>
-      </c>
-      <c r="L8" t="n">
-        <v>70.22</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11404.35</v>
-      </c>
-      <c r="N8" t="n">
-        <v>133.72</v>
-      </c>
-      <c r="O8" t="n">
-        <v>14965.63</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
         <v>1040.5</v>
       </c>
     </row>
